--- a/attendance_2024_3.xlsx
+++ b/attendance_2024_3.xlsx
@@ -415,7 +415,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -425,7 +425,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -435,12 +435,12 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
